--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_19.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361356.0568162875</v>
+        <v>376151.8306067701</v>
       </c>
     </row>
     <row r="8">
@@ -656,31 +656,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>129.1308986796023</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>186.2783301735246</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,67 +899,67 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>7.83710273534405</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.10479885422595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>159.4936545215617</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>304.8099111083579</v>
+        <v>157.7633614883224</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1449,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>130.0769609709166</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884923</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620182</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>92.47840864636518</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.001463919215495</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1695,16 +1695,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>54.86879163620181</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>92.4784086463653</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>152.9376416850984</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>86.60775470555272</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>9.049743378592472</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,7 +1941,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>9.227178156183182</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>127.1752966933685</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>54.21297465918771</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>26.56844957123012</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>101.6020294377954</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,13 +2169,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571426</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>127.1081688162649</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>396.3828275000338</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>45.66734642034056</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>123.6077575056603</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2412,10 +2412,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>29.38391736390409</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>43.35606979968811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>20.98460302498233</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>16.35979819721224</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2643,13 +2643,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -2685,10 +2685,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.7286863245553</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.1611518470178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>13.30258356063594</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -2840,25 +2840,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>208.4133592145895</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2880,13 +2880,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>24.64815776426665</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2934,10 +2934,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>48.37669028362031</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.96858446130993</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>87.67801441586478</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>362.4150396299758</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>249.9639398626341</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,16 +3117,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>123.3207948651974</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>228.4010902861368</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>216.7113834034765</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>159.0623117715885</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>6.673890207337569</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
@@ -3363,7 +3363,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.73730874025232</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>135.880376802264</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>50.39085407108831</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>117.8895498199124</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>34.28709292221124</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,16 +3591,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.31220406845842</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>116.1611518470178</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>10.54215419659351</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>10.39393879389038</v>
+        <v>49.41175989982406</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3828,13 +3828,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>24.64815776426666</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571424</v>
@@ -3879,10 +3879,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>94.38897766723555</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3940,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>147.3472002825671</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>31.33826090283878</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>315.3403249028327</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4062,19 +4062,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>104.262613881998</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4113,7 +4113,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>211.324247251774</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="F2" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="D2" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="F2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>324.1694235828572</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>149.7163943017302</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>149.7163943017302</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>149.7163943017302</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>492.3847606029253</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X3" t="n">
-        <v>492.3847606029253</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>492.3847606029253</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,13 +4653,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>292.8299288097498</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4744,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4832,22 +4832,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4887,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>701.7829245265909</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>701.7829245265909</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>701.7829245265909</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>701.7829245265909</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>701.7829245265909</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>701.7829245265909</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>494.022625761637</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
         <v>136.0777814360265</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>850.470986230295</v>
+        <v>701.9391179272288</v>
       </c>
       <c r="C11" t="n">
-        <v>850.470986230295</v>
+        <v>701.9391179272288</v>
       </c>
       <c r="D11" t="n">
-        <v>850.470986230295</v>
+        <v>701.9391179272288</v>
       </c>
       <c r="E11" t="n">
-        <v>850.470986230295</v>
+        <v>701.9391179272288</v>
       </c>
       <c r="F11" t="n">
-        <v>850.470986230295</v>
+        <v>701.9391179272288</v>
       </c>
       <c r="G11" t="n">
         <v>542.5821871309436</v>
@@ -5063,28 +5063,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T11" t="n">
-        <v>2161.554709220192</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U11" t="n">
-        <v>1907.76828710506</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V11" t="n">
-        <v>1576.705399761489</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W11" t="n">
-        <v>1223.936744491375</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="X11" t="n">
-        <v>850.470986230295</v>
+        <v>1092.078449903041</v>
       </c>
       <c r="Y11" t="n">
-        <v>850.470986230295</v>
+        <v>701.9391179272288</v>
       </c>
     </row>
     <row r="12">
@@ -5097,16 +5097,16 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C12" t="n">
-        <v>622.1327649551154</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D12" t="n">
-        <v>490.7418952875228</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E12" t="n">
-        <v>331.5044402820673</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F12" t="n">
-        <v>184.9698823089523</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G12" t="n">
         <v>46.89499644164432</v>
@@ -5121,22 +5121,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076323</v>
       </c>
       <c r="L12" t="n">
-        <v>642.6780758583288</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I13" t="n">
         <v>102.3180182963936</v>
@@ -5218,31 +5218,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363101</v>
+        <v>195.7305522826211</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363101</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="14">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
         <v>121.6684232076319</v>
@@ -5385,22 +5385,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1894.892063851584</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1659.739955619841</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1405.50259889164</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1197.651098686107</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y15" t="n">
-        <v>989.8907999211528</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I16" t="n">
         <v>102.3180182963936</v>
@@ -5455,31 +5455,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2270.376276991246</v>
+        <v>1384.815537180259</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>1015.853020239847</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>1015.853020239847</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>630.0647676416029</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>630.0647676416029</v>
       </c>
       <c r="G17" t="n">
         <v>542.5821871309436</v>
@@ -5513,13 +5513,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T17" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U17" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="V17" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="W17" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="X17" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="Y17" t="n">
-        <v>2270.376276991246</v>
+        <v>1771.415377244381</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
         <v>2344.749822082216</v>
@@ -5634,10 +5634,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1196.639518969728</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>988.8792202047736</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>230.7779139462608</v>
+        <v>101.6555769054703</v>
       </c>
       <c r="C19" t="n">
-        <v>230.7779139462608</v>
+        <v>101.6555769054703</v>
       </c>
       <c r="D19" t="n">
-        <v>230.7779139462608</v>
+        <v>101.6555769054703</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3180182963936</v>
+        <v>101.6555769054703</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J19" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5692,31 +5692,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>412.4263787765005</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T19" t="n">
-        <v>412.4263787765005</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U19" t="n">
-        <v>412.4263787765005</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V19" t="n">
-        <v>412.4263787765005</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="W19" t="n">
-        <v>412.4263787765005</v>
+        <v>101.6555769054703</v>
       </c>
       <c r="X19" t="n">
-        <v>412.4263787765005</v>
+        <v>101.6555769054703</v>
       </c>
       <c r="Y19" t="n">
-        <v>412.4263787765005</v>
+        <v>101.6555769054703</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.89499644164432</v>
+        <v>1377.970252133248</v>
       </c>
       <c r="C20" t="n">
-        <v>46.89499644164432</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="D20" t="n">
-        <v>46.89499644164432</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="E20" t="n">
-        <v>46.89499644164432</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2134.717891471475</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>1880.931469356342</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V20" t="n">
-        <v>1549.868582012772</v>
+        <v>1764.57009219737</v>
       </c>
       <c r="W20" t="n">
-        <v>1197.099926742658</v>
+        <v>1764.57009219737</v>
       </c>
       <c r="X20" t="n">
-        <v>823.6341684815778</v>
+        <v>1764.57009219737</v>
       </c>
       <c r="Y20" t="n">
-        <v>433.4948365057661</v>
+        <v>1764.57009219737</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H21" t="n">
         <v>114.6107419524668</v>
@@ -5829,7 +5829,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
         <v>121.6684232076319</v>
@@ -5853,28 +5853,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1955.335802636929</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C22" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D22" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E22" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F22" t="n">
-        <v>515.4926565726222</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G22" t="n">
-        <v>346.3547163191317</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H22" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X22" t="n">
-        <v>607.7685734363102</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y22" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1971.284063821137</v>
+        <v>911.5447040713552</v>
       </c>
       <c r="C23" t="n">
-        <v>1602.321546880725</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="D23" t="n">
-        <v>1244.055848273975</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E23" t="n">
-        <v>858.2675956757305</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F23" t="n">
-        <v>447.2816908861229</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6008,31 +6008,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>2041.052531381403</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082217</v>
+        <v>2041.052531381403</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082217</v>
+        <v>2041.052531381403</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082217</v>
+        <v>1688.283876111289</v>
       </c>
       <c r="X23" t="n">
-        <v>1971.284063821137</v>
+        <v>1688.283876111289</v>
       </c>
       <c r="Y23" t="n">
-        <v>1971.284063821137</v>
+        <v>1298.144544135477</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>843.8100588399052</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C24" t="n">
-        <v>669.3570295587782</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="D24" t="n">
-        <v>520.4226198975269</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>361.1851648920714</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>214.6506069189564</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>76.57572105164846</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1639.131396183828</v>
       </c>
       <c r="O24" t="n">
         <v>1887.88481026779</v>
@@ -6090,28 +6090,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1219.785694624927</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>1012.025395859973</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2116.851400240302</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>1827.670254986225</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1783.87624508755</v>
+        <v>63.90293997634646</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>767.4026914201181</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="C26" t="n">
-        <v>398.4401744797064</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="D26" t="n">
-        <v>398.4401744797064</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="E26" t="n">
-        <v>398.4401744797064</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F26" t="n">
-        <v>398.4401744797064</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G26" t="n">
-        <v>398.4401744797064</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H26" t="n">
-        <v>68.09156515374769</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6251,25 +6251,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T26" t="n">
-        <v>2270.376276991246</v>
+        <v>2070.656115445169</v>
       </c>
       <c r="U26" t="n">
-        <v>2270.376276991246</v>
+        <v>2070.656115445169</v>
       </c>
       <c r="V26" t="n">
-        <v>2270.376276991246</v>
+        <v>1739.593228101598</v>
       </c>
       <c r="W26" t="n">
-        <v>1917.607621721131</v>
+        <v>1386.824572831484</v>
       </c>
       <c r="X26" t="n">
-        <v>1544.141863460052</v>
+        <v>1013.358814570404</v>
       </c>
       <c r="Y26" t="n">
-        <v>1154.00253148424</v>
+        <v>623.2194825945925</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H27" t="n">
         <v>114.6107419524668</v>
@@ -6303,25 +6303,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6333,22 +6333,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>149.6512452543264</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>149.6512452543264</v>
       </c>
       <c r="E28" t="n">
         <v>46.89499644164432</v>
@@ -6406,28 +6406,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>164.2294932568138</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V28" t="n">
-        <v>164.2294932568138</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W28" t="n">
-        <v>164.2294932568138</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X28" t="n">
-        <v>164.2294932568138</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1016.293597920344</v>
+        <v>556.019140222495</v>
       </c>
       <c r="C29" t="n">
-        <v>1016.293597920344</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="D29" t="n">
-        <v>1016.293597920344</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E29" t="n">
-        <v>630.5053453220996</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F29" t="n">
-        <v>630.5053453220996</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2335778049845</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049845</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915531</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6482,31 +6482,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645667</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V29" t="n">
-        <v>1402.893437984466</v>
+        <v>1685.526967532543</v>
       </c>
       <c r="W29" t="n">
-        <v>1402.893437984466</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="X29" t="n">
-        <v>1402.893437984466</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="Y29" t="n">
-        <v>1402.893437984466</v>
+        <v>942.6189802866168</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>139.5078710072816</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6540,25 +6540,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6582,10 +6582,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1157.094557224842</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.86091236428</v>
+        <v>250.2311118787867</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9247294363731</v>
+        <v>250.2311118787867</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8080900240374</v>
+        <v>250.2311118787867</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J31" t="n">
         <v>46.89499644164432</v>
@@ -6640,31 +6640,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U31" t="n">
-        <v>607.7685734363102</v>
+        <v>478.2206627768041</v>
       </c>
       <c r="V31" t="n">
-        <v>607.7685734363102</v>
+        <v>478.2206627768041</v>
       </c>
       <c r="W31" t="n">
-        <v>607.7685734363102</v>
+        <v>478.2206627768041</v>
       </c>
       <c r="X31" t="n">
-        <v>607.7685734363102</v>
+        <v>250.2311118787867</v>
       </c>
       <c r="Y31" t="n">
-        <v>607.7685734363102</v>
+        <v>250.2311118787867</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1568.010650042283</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C32" t="n">
-        <v>1568.010650042283</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D32" t="n">
-        <v>1209.744951435532</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E32" t="n">
-        <v>823.9566988372881</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F32" t="n">
-        <v>412.9707940476805</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
         <v>46.89499644164432</v>
@@ -6719,31 +6719,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082216</v>
+        <v>1614.709576616725</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082216</v>
+        <v>1614.709576616725</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.749822082216</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="X32" t="n">
-        <v>2344.749822082216</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="Y32" t="n">
-        <v>1954.610490106405</v>
+        <v>1261.940921346611</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2275.355263568887</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6804,25 +6804,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>277.6031684478431</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V34" t="n">
-        <v>277.6031684478431</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>2055.332652045256</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1373.300672559391</v>
+        <v>1480.84130862285</v>
       </c>
       <c r="C35" t="n">
-        <v>1004.338155618979</v>
+        <v>1480.84130862285</v>
       </c>
       <c r="D35" t="n">
-        <v>1004.338155618979</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E35" t="n">
-        <v>618.5499030207352</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F35" t="n">
-        <v>207.5639982311276</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G35" t="n">
-        <v>207.5639982311276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>207.5639982311276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6965,22 +6965,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U35" t="n">
-        <v>2090.963399967084</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V35" t="n">
-        <v>1759.900512623513</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.900512623513</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="X35" t="n">
-        <v>1759.900512623513</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="Y35" t="n">
-        <v>1759.900512623513</v>
+        <v>1480.84130862285</v>
       </c>
     </row>
     <row r="36">
@@ -6993,22 +6993,22 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127371</v>
+        <v>473.1983552938641</v>
       </c>
       <c r="E36" t="n">
-        <v>298.7453260127371</v>
+        <v>313.9609002884086</v>
       </c>
       <c r="F36" t="n">
-        <v>292.0040227730022</v>
+        <v>313.9609002884086</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>175.8860144211006</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>68.85187395705071</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7023,16 +7023,16 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.950675330485</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>1952.812428015457</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U37" t="n">
-        <v>318.5874281822333</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V37" t="n">
-        <v>318.5874281822333</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W37" t="n">
-        <v>318.5874281822333</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="X37" t="n">
-        <v>267.6875755851744</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>2090.06533387633</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.89499644164432</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E38" t="n">
         <v>46.89499644164432</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645668</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302097</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319828</v>
+        <v>2310.116394888064</v>
       </c>
       <c r="X38" t="n">
-        <v>556.114681770903</v>
+        <v>1936.650636626984</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.9753497950912</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>814.4261909236466</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,22 +7254,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7296,7 +7296,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>982.6415279437147</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>164.2294932568138</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R40" t="n">
-        <v>453.4106385108907</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S40" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="T40" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="U40" t="n">
-        <v>164.2294932568138</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="V40" t="n">
-        <v>164.2294932568138</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="W40" t="n">
-        <v>164.2294932568138</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="X40" t="n">
-        <v>164.2294932568138</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.2294932568138</v>
+        <v>2138.758986819787</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1740.802376378078</v>
+        <v>911.5447040713552</v>
       </c>
       <c r="C41" t="n">
-        <v>1371.839859437666</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="D41" t="n">
-        <v>1371.839859437666</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E41" t="n">
-        <v>1371.839859437666</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F41" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G41" t="n">
         <v>542.5821871309436</v>
@@ -7436,25 +7436,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2334.25089400758</v>
+        <v>2294.838953496535</v>
       </c>
       <c r="T41" t="n">
-        <v>2114.268134639158</v>
+        <v>2294.838953496535</v>
       </c>
       <c r="U41" t="n">
-        <v>2114.268134639158</v>
+        <v>2041.052531381403</v>
       </c>
       <c r="V41" t="n">
-        <v>2114.268134639158</v>
+        <v>2041.052531381403</v>
       </c>
       <c r="W41" t="n">
-        <v>2114.268134639158</v>
+        <v>1688.283876111289</v>
       </c>
       <c r="X41" t="n">
-        <v>1740.802376378078</v>
+        <v>1688.283876111289</v>
       </c>
       <c r="Y41" t="n">
-        <v>1740.802376378078</v>
+        <v>1298.144544135477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7488,25 +7488,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>172.2525564994817</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>541.8037716079657</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.03183067514</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1536.756511963314</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>1938.46894355964</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P42" t="n">
-        <v>2243.875517831853</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7527,13 +7527,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="43">
@@ -7588,22 +7588,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>195.7305522826212</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="V43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="W43" t="n">
         <v>46.89499644164432</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.2335778049849</v>
+        <v>801.6457659803002</v>
       </c>
       <c r="C44" t="n">
-        <v>212.2335778049849</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="D44" t="n">
-        <v>212.2335778049849</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
         <v>762.5916738244546</v>
@@ -7670,28 +7670,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2313.09501308945</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2129.899900227426</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>1909.917140859004</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>1656.130718743872</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V44" t="n">
-        <v>1325.067831400301</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W44" t="n">
-        <v>972.2991761301867</v>
+        <v>1951.850696281314</v>
       </c>
       <c r="X44" t="n">
-        <v>598.8334178691067</v>
+        <v>1578.384938020234</v>
       </c>
       <c r="Y44" t="n">
-        <v>598.8334178691067</v>
+        <v>1188.245606044422</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>704.2697763643505</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C45" t="n">
-        <v>529.8167470832235</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>380.8823374219722</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E45" t="n">
-        <v>221.6448824165167</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
         <v>1637.630816213677</v>
@@ -7749,28 +7749,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1542.334269083107</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1288.096912354905</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1080.245412149372</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>872.4851133844186</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.87624508755</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>162.848892943671</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>162.848892943671</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2327.741878547514</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>2038.560733293437</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X46" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y46" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8535,7 +8535,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,13 +8544,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082741</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>108.5094987082738</v>
+        <v>152.7645603911081</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>108.5094987082738</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>309.7493254456951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.4978194579836</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22544,31 +22544,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22635,7 +22635,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>15.93831371378155</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22644,10 +22644,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,16 +22677,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>65.41665298739503</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,10 +22787,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>104.3983415011524</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,19 +22917,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>107.5778969230784</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,7 +22954,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22963,10 +22963,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>68.60374760888197</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,19 +23027,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23072,7 +23072,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2863534910952</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23106,10 +23106,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,25 +23148,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>12.18951658227616</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23270,7 +23270,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>109.279138733586</v>
+        <v>256.3256883536216</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23337,19 +23337,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>17.36810459372214</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.936681964082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>133.1410289771302</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.5317197306518</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23583,16 +23583,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23625,7 +23625,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>133.1410289771301</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>212.3352500859092</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>327.4812951363912</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>138.3953221860463</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23874,7 +23874,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>196.5458070472943</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>19.25866595320065</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>91.20807336374354</v>
       </c>
       <c r="G19" t="n">
         <v>167.4465608509556</v>
@@ -23908,10 +23908,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,16 +23969,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
@@ -23987,7 +23987,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>191.2144822035073</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>226.1502290323395</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24057,13 +24057,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>112.0459792443682</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>105.6924183331603</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>54.06789032788008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5524658530034</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>17.70622234191018</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>172.1155853543969</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>23.83730805897849</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24300,10 +24300,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>76.57988169550534</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>122.2404615295365</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24415,13 +24415,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>208.7815735241399</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>142.7005925247248</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>201.4231335775252</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24531,13 +24531,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24573,10 +24573,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.7052763220139</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.423501505077</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24680,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>351.9703082103716</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>119.3388992555454</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24768,13 +24768,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>81.31564129514277</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24822,10 +24822,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.86339572062737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24859,7 +24859,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24892,7 +24892,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>198.6113193856714</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>51.67401021196815</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>1.284618031347065</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25005,16 +25005,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,13 +25044,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>23.11316778137174</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.4465608509556</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
@@ -25129,13 +25129,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>58.12190805045418</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>137.9716582172065</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25166,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>4.622883778118677</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,13 +25205,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25233,16 +25233,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>138.3953221860463</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25251,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>45.30127931546193</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>43.95160337967332</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25366,19 +25366,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>175.3188013179488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>264.8442918435682</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,22 +25436,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>314.9538757952018</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25470,7 +25470,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,16 +25479,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.3704917088459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>51.08566925161001</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,13 +25564,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25591,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>203.986714032347</v>
       </c>
       <c r="T40" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,25 +25676,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>170.9692229395134</v>
+        <v>131.9514018335798</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25716,13 +25716,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25767,10 +25767,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>111.3840075362419</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25828,16 +25828,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>78.27223734092829</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>171.4064629643077</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,13 +25865,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25883,7 +25883,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.29154873722233</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>33.90064381458035</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25950,19 +25950,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26001,7 +26001,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>21.47633989765131</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.4465608509556</v>
@@ -26041,7 +26041,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>24.28396809188513</v>
       </c>
       <c r="J46" t="n">
         <v>54.86879163620181</v>
@@ -26074,13 +26074,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>208.78157352414</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>423709.7149548979</v>
+        <v>423709.714954898</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423709.714954898</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674159.0543987493</v>
+        <v>674159.0543987494</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674159.0543987493</v>
+        <v>674159.0543987494</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674159.0543987491</v>
+        <v>674159.0543987494</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674159.0543987493</v>
+        <v>674159.0543987494</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674159.0543987493</v>
+        <v>674159.0543987491</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674159.0543987494</v>
+        <v>674159.0543987495</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674159.0543987495</v>
+        <v>674159.0543987491</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674159.0543987493</v>
+        <v>674159.0543987495</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>157852.6389047657</v>
+      </c>
+      <c r="C2" t="n">
         <v>157852.6389047658</v>
-      </c>
-      <c r="C2" t="n">
-        <v>157852.6389047659</v>
       </c>
       <c r="D2" t="n">
         <v>157852.6389047658</v>
@@ -26329,10 +26329,10 @@
         <v>251157.2947760046</v>
       </c>
       <c r="H2" t="n">
+        <v>251157.2947760046</v>
+      </c>
+      <c r="I2" t="n">
         <v>251157.2947760047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>251157.2947760046</v>
       </c>
       <c r="J2" t="n">
         <v>251157.2947760046</v>
@@ -26341,19 +26341,19 @@
         <v>251157.2947760047</v>
       </c>
       <c r="L2" t="n">
-        <v>251157.2947760046</v>
+        <v>251157.2947760047</v>
       </c>
       <c r="M2" t="n">
         <v>251157.2947760046</v>
       </c>
       <c r="N2" t="n">
-        <v>251157.2947760047</v>
+        <v>251157.2947760045</v>
       </c>
       <c r="O2" t="n">
         <v>251157.2947760047</v>
       </c>
       <c r="P2" t="n">
-        <v>251157.2947760047</v>
+        <v>251157.2947760045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.53382007596</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>445.150385721245</v>
       </c>
       <c r="F4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="G4" t="n">
         <v>445.150385721245</v>
       </c>
       <c r="H4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="I4" t="n">
         <v>445.150385721245</v>
@@ -26454,7 +26454,7 @@
         <v>445.1503857212451</v>
       </c>
       <c r="O4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="P4" t="n">
         <v>445.150385721245</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28622.4061117524</v>
+        <v>28622.40611175237</v>
       </c>
       <c r="C6" t="n">
-        <v>109391.8376433002</v>
+        <v>109391.8376433001</v>
       </c>
       <c r="D6" t="n">
-        <v>109391.8376433002</v>
+        <v>109391.8376433001</v>
       </c>
       <c r="E6" t="n">
         <v>-137121.9205141158</v>
       </c>
       <c r="F6" t="n">
-        <v>208490.4222648369</v>
+        <v>208490.4222648368</v>
       </c>
       <c r="G6" t="n">
         <v>208490.4222648368</v>
@@ -26546,22 +26546,22 @@
         <v>145430.4796657306</v>
       </c>
       <c r="K6" t="n">
-        <v>208490.422264837</v>
+        <v>208490.4222648368</v>
       </c>
       <c r="L6" t="n">
+        <v>208490.4222648369</v>
+      </c>
+      <c r="M6" t="n">
+        <v>122471.8884447609</v>
+      </c>
+      <c r="N6" t="n">
+        <v>208490.4222648367</v>
+      </c>
+      <c r="O6" t="n">
         <v>208490.4222648368</v>
       </c>
-      <c r="M6" t="n">
-        <v>122471.8884447607</v>
-      </c>
-      <c r="N6" t="n">
-        <v>208490.4222648369</v>
-      </c>
-      <c r="O6" t="n">
-        <v>208490.4222648369</v>
-      </c>
       <c r="P6" t="n">
-        <v>208490.4222648369</v>
+        <v>208490.4222648367</v>
       </c>
     </row>
   </sheetData>
@@ -26750,7 +26750,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
         <v>301.9048087062786</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454668</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>138.0306725869556</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -32075,10 +32075,10 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>140.9980901415503</v>
@@ -32230,7 +32230,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32251,22 +32251,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>104.8606541711232</v>
+        <v>101.8932366165283</v>
       </c>
       <c r="L18" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32798,10 +32798,10 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
-        <v>12.93721689827657</v>
+        <v>106.8356825032848</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932971</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
@@ -33272,7 +33272,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
-        <v>165.9255376479865</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
         <v>154.5040580932971</v>
@@ -33515,10 +33515,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P33" t="n">
-        <v>50.94019673382266</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R33" t="n">
         <v>40.31853275515171</v>
@@ -33743,10 +33743,10 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N36" t="n">
-        <v>116.8697451549094</v>
+        <v>105.3199451596975</v>
       </c>
       <c r="O36" t="n">
         <v>154.5040580932971</v>
@@ -33755,7 +33755,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.8928070998824</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>40.31853275515171</v>
@@ -34211,7 +34211,7 @@
         <v>61.3521838145467</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L42" t="n">
         <v>140.9980901415503</v>
@@ -34229,7 +34229,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>31.79772296670062</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R42" t="n">
         <v>40.31853275515172</v>
@@ -34366,7 +34366,7 @@
         <v>46.79069402069874</v>
       </c>
       <c r="J44" t="n">
-        <v>103.0102241525006</v>
+        <v>103.0102241525001</v>
       </c>
       <c r="K44" t="n">
         <v>154.3856233586786</v>
@@ -34445,7 +34445,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J45" t="n">
-        <v>61.3521838145467</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>104.8606541711232</v>
@@ -34457,7 +34457,7 @@
         <v>164.5381207449219</v>
       </c>
       <c r="N45" t="n">
-        <v>105.3199451596975</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O45" t="n">
         <v>154.5040580932972</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,13 +35264,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503832</v>
       </c>
       <c r="L12" t="n">
-        <v>370.3166381105406</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35507,7 +35507,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>75.52871390503797</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35896,13 +35896,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35975,10 +35975,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36057,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>75.52871390503797</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
@@ -36446,10 +36446,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>360.9378791584968</v>
+        <v>454.836344763505</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255822</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
@@ -36680,7 +36680,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M27" t="n">
-        <v>332.1534122685987</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
         <v>516.8936174628016</v>
@@ -36689,10 +36689,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36920,7 +36920,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
@@ -36929,7 +36929,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
         <v>231.4844522093428</v>
@@ -37157,16 +37157,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>235.4285579594296</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>464.8704074151296</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37403,7 +37403,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>228.5170346547479</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37640,7 +37640,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37874,10 +37874,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q42" t="n">
-        <v>101.8932366165282</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.4238170675625</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107712</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38105,7 +38105,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1111013.584786689</v>
+        <v>1035140.920381762</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322273.2695136672</v>
+        <v>223758.8650374574</v>
       </c>
     </row>
     <row r="8">
@@ -658,23 +658,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>89.75619044871837</v>
       </c>
       <c r="C3" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>134.9283336809963</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>87.68958101214699</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,49 +1311,49 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>297.9222142960681</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>414.4837081715351</v>
       </c>
       <c r="H11" t="n">
-        <v>331.0869178506238</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>181.3473974930421</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.905297830925</v>
+        <v>102.7828386997001</v>
       </c>
       <c r="H12" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>74.30881812140657</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.5302669329279</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>106.6890391465054</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H13" t="n">
-        <v>158.9607559314126</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>144.4021047498582</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>93.81283581855196</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>95.42582972474165</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>2.859357180782199</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>414.4837081715351</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I14" t="n">
-        <v>178.9002608012674</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V15" t="n">
-        <v>134.8390850543344</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9916779748563</v>
       </c>
     </row>
     <row r="16">
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>123.5289014911852</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>106.6890391465054</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.9607559314126</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>144.4021047498582</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>59.60211835013963</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.4837081715351</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>254.9704628844311</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>77.51940527602309</v>
       </c>
       <c r="G18" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>74.30881812140659</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.94979525863036</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>163.5434392080944</v>
       </c>
       <c r="T18" t="n">
-        <v>57.69333743515839</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.9142565039483</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.3758391310088</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>183.6760606967674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>201.9855045787</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>25.48310852147896</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S20" t="n">
-        <v>190.3564384189606</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>24.31535240259318</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>49.44015940179544</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S21" t="n">
         <v>163.5434392080944</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.46755290535175</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.623590991012</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>158.9607559314126</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>123.5289014911853</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>303.0063298941506</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>311.4360584298282</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H24" t="n">
         <v>104.3883541553076</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>59.66385641544514</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>77.72878559814586</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>156.2386663830958</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>248.2495071498747</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>134.9474759313285</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>248.0596779397531</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>77.29049401906113</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>51.64502220720954</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.12354205134271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>127.4503722947888</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>307.1861186321484</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.31785343913925</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>93.48944721115194</v>
+        <v>101.064868464136</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>28.21611991813175</v>
       </c>
       <c r="I37" t="n">
-        <v>118.2537958723255</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>266.8105066124078</v>
       </c>
       <c r="E38" t="n">
-        <v>127.0784597613395</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3632,7 +3632,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>130.0455752073216</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>139.718269812072</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>212.0685156039285</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3875,7 +3875,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>129.6781866221428</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>102.5756487563989</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>215.7236788005314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -3997,7 +3997,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>188.0372413736207</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>89.06613335611794</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>40.80127900144132</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
         <v>506.1786963984129</v>
@@ -4318,7 +4318,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.84447166430675</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.84447166430675</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>446.5882660539306</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>654.3485648188846</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>654.3485648188846</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>446.5882660539306</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4755,22 +4755,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>509.4769954460863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>588.0815197256143</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C9" t="n">
-        <v>413.6284904444873</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D9" t="n">
-        <v>413.6284904444873</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E9" t="n">
-        <v>254.3910354390318</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8564774659168</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4892,10 +4892,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2968567456824</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.578907578026</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="C11" t="n">
-        <v>1587.647377986038</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="D11" t="n">
-        <v>1587.647377986038</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.859125387793</v>
+        <v>867.427895235648</v>
       </c>
       <c r="F11" t="n">
-        <v>790.8732205981856</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="G11" t="n">
-        <v>372.2028083037058</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H11" t="n">
         <v>37.77157815156051</v>
@@ -5065,28 +5065,28 @@
         <v>1888.578907578026</v>
       </c>
       <c r="R11" t="n">
-        <v>1888.578907578026</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="S11" t="n">
-        <v>1888.578907578026</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="T11" t="n">
-        <v>1888.578907578026</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="U11" t="n">
-        <v>1888.578907578026</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="V11" t="n">
-        <v>1888.578907578026</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="W11" t="n">
-        <v>1888.578907578026</v>
+        <v>1436.395337220803</v>
       </c>
       <c r="X11" t="n">
-        <v>1888.578907578026</v>
+        <v>1436.395337220803</v>
       </c>
       <c r="Y11" t="n">
-        <v>1888.578907578026</v>
+        <v>1253.216147833892</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.3727310886351</v>
+        <v>449.7644920098836</v>
       </c>
       <c r="C12" t="n">
-        <v>814.9197018075081</v>
+        <v>449.7644920098836</v>
       </c>
       <c r="D12" t="n">
-        <v>665.9852921462568</v>
+        <v>300.8300823486323</v>
       </c>
       <c r="E12" t="n">
-        <v>506.7478371408014</v>
+        <v>141.5926273431768</v>
       </c>
       <c r="F12" t="n">
-        <v>360.2132791676863</v>
+        <v>141.5926273431768</v>
       </c>
       <c r="G12" t="n">
-        <v>221.9250995404893</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H12" t="n">
-        <v>112.8309903954055</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I12" t="n">
         <v>37.77157815156051</v>
       </c>
       <c r="J12" t="n">
-        <v>78.0205483981986</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K12" t="n">
-        <v>78.0205483981986</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L12" t="n">
-        <v>402.1814944610675</v>
+        <v>557.3452682424038</v>
       </c>
       <c r="M12" t="n">
-        <v>832.4412504726884</v>
+        <v>926.5966030787453</v>
       </c>
       <c r="N12" t="n">
-        <v>1289.795715335533</v>
+        <v>1271.117258716363</v>
       </c>
       <c r="O12" t="n">
         <v>1623.091564367483</v>
@@ -5144,28 +5144,28 @@
         <v>1888.578907578026</v>
       </c>
       <c r="R12" t="n">
-        <v>1827.437223807391</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S12" t="n">
-        <v>1827.437223807391</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T12" t="n">
-        <v>1827.437223807391</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="U12" t="n">
-        <v>1827.437223807391</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="V12" t="n">
-        <v>1827.437223807391</v>
+        <v>1287.82898472864</v>
       </c>
       <c r="W12" t="n">
-        <v>1573.19986707919</v>
+        <v>1033.591628000438</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.348366873657</v>
+        <v>825.7401277949054</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.588068108703</v>
+        <v>617.9798290299516</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>451.9654163614355</v>
+        <v>357.204976140676</v>
       </c>
       <c r="C13" t="n">
-        <v>451.9654163614355</v>
+        <v>357.204976140676</v>
       </c>
       <c r="D13" t="n">
-        <v>451.9654163614355</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="E13" t="n">
-        <v>451.9654163614355</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="F13" t="n">
-        <v>451.9654163614355</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="G13" t="n">
-        <v>344.1987101528442</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H13" t="n">
-        <v>183.6322900201042</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I13" t="n">
         <v>37.77157815156051</v>
@@ -5235,16 +5235,16 @@
         <v>451.9654163614355</v>
       </c>
       <c r="V13" t="n">
-        <v>451.9654163614355</v>
+        <v>357.204976140676</v>
       </c>
       <c r="W13" t="n">
-        <v>451.9654163614355</v>
+        <v>357.204976140676</v>
       </c>
       <c r="X13" t="n">
-        <v>451.9654163614355</v>
+        <v>357.204976140676</v>
       </c>
       <c r="Y13" t="n">
-        <v>451.9654163614355</v>
+        <v>357.204976140676</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.578907578026</v>
+        <v>1204.747364964341</v>
       </c>
       <c r="C14" t="n">
-        <v>1792.189180583337</v>
+        <v>1204.747364964341</v>
       </c>
       <c r="D14" t="n">
-        <v>1433.923481976587</v>
+        <v>1201.859125387793</v>
       </c>
       <c r="E14" t="n">
-        <v>1048.135229378342</v>
+        <v>1201.859125387793</v>
       </c>
       <c r="F14" t="n">
-        <v>637.1493245887348</v>
+        <v>790.8732205981856</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4789122942549</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="H14" t="n">
-        <v>218.4789122942549</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I14" t="n">
         <v>37.77157815156051</v>
@@ -5314,16 +5314,16 @@
         <v>1888.578907578026</v>
       </c>
       <c r="V14" t="n">
-        <v>1888.578907578026</v>
+        <v>1557.516020234455</v>
       </c>
       <c r="W14" t="n">
-        <v>1888.578907578026</v>
+        <v>1204.747364964341</v>
       </c>
       <c r="X14" t="n">
-        <v>1888.578907578026</v>
+        <v>1204.747364964341</v>
       </c>
       <c r="Y14" t="n">
-        <v>1888.578907578026</v>
+        <v>1204.747364964341</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>914.3133188447902</v>
+        <v>741.9904423163543</v>
       </c>
       <c r="C15" t="n">
-        <v>739.8602895636632</v>
+        <v>567.5374130352274</v>
       </c>
       <c r="D15" t="n">
-        <v>590.9258799024119</v>
+        <v>418.6030033739761</v>
       </c>
       <c r="E15" t="n">
-        <v>431.6884248969563</v>
+        <v>259.3655483685206</v>
       </c>
       <c r="F15" t="n">
-        <v>285.1538669238413</v>
+        <v>112.8309903954056</v>
       </c>
       <c r="G15" t="n">
-        <v>146.8656872966443</v>
+        <v>112.8309903954056</v>
       </c>
       <c r="H15" t="n">
-        <v>37.77157815156051</v>
+        <v>112.8309903954056</v>
       </c>
       <c r="I15" t="n">
         <v>37.77157815156051</v>
       </c>
       <c r="J15" t="n">
-        <v>78.02054839819859</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K15" t="n">
-        <v>120.6333602003491</v>
+        <v>163.1291382093979</v>
       </c>
       <c r="L15" t="n">
-        <v>444.7943062632179</v>
+        <v>487.2900842722668</v>
       </c>
       <c r="M15" t="n">
-        <v>875.0540622748388</v>
+        <v>917.5498402838875</v>
       </c>
       <c r="N15" t="n">
-        <v>1332.408527137683</v>
+        <v>1262.070495921505</v>
       </c>
       <c r="O15" t="n">
-        <v>1581.161941221645</v>
+        <v>1614.044801572625</v>
       </c>
       <c r="P15" t="n">
-        <v>1763.805418834996</v>
+        <v>1879.532144783168</v>
       </c>
       <c r="Q15" t="n">
         <v>1888.578907578026</v>
       </c>
       <c r="R15" t="n">
-        <v>1888.578907578026</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="S15" t="n">
-        <v>1888.578907578026</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="T15" t="n">
-        <v>1888.578907578026</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="U15" t="n">
-        <v>1888.578907578026</v>
+        <v>1586.697748870575</v>
       </c>
       <c r="V15" t="n">
-        <v>1752.377811563546</v>
+        <v>1351.545640638833</v>
       </c>
       <c r="W15" t="n">
-        <v>1498.140454835345</v>
+        <v>1097.308283910631</v>
       </c>
       <c r="X15" t="n">
-        <v>1290.288954629812</v>
+        <v>889.4567837050981</v>
       </c>
       <c r="Y15" t="n">
-        <v>1082.528655864858</v>
+        <v>741.9904423163543</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>451.9654163614355</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="C16" t="n">
-        <v>451.9654163614355</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="D16" t="n">
-        <v>451.9654163614355</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="E16" t="n">
-        <v>451.9654163614355</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="F16" t="n">
-        <v>451.9654163614355</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G16" t="n">
-        <v>344.1987101528442</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H16" t="n">
-        <v>183.6322900201042</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I16" t="n">
         <v>37.77157815156051</v>
@@ -5475,13 +5475,13 @@
         <v>451.9654163614355</v>
       </c>
       <c r="W16" t="n">
-        <v>451.9654163614355</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="X16" t="n">
-        <v>451.9654163614355</v>
+        <v>162.5482463244749</v>
       </c>
       <c r="Y16" t="n">
-        <v>451.9654163614355</v>
+        <v>162.5482463244749</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>516.6461503956764</v>
+        <v>867.427895235648</v>
       </c>
       <c r="C17" t="n">
-        <v>456.4419904460404</v>
+        <v>867.427895235648</v>
       </c>
       <c r="D17" t="n">
-        <v>456.4419904460404</v>
+        <v>867.427895235648</v>
       </c>
       <c r="E17" t="n">
-        <v>456.4419904460404</v>
+        <v>867.427895235648</v>
       </c>
       <c r="F17" t="n">
         <v>456.4419904460404</v>
@@ -5518,19 +5518,19 @@
         <v>94.76073252434992</v>
       </c>
       <c r="K17" t="n">
-        <v>300.9175062625695</v>
+        <v>300.9175062625696</v>
       </c>
       <c r="L17" t="n">
-        <v>608.9498412559816</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M17" t="n">
-        <v>968.301710885993</v>
+        <v>968.3017108859931</v>
       </c>
       <c r="N17" t="n">
         <v>1318.836271911618</v>
       </c>
       <c r="O17" t="n">
-        <v>1604.648480067584</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P17" t="n">
         <v>1810.908204322029</v>
@@ -5545,22 +5545,22 @@
         <v>1888.578907578026</v>
       </c>
       <c r="T17" t="n">
-        <v>1666.85108069669</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="U17" t="n">
-        <v>1666.85108069669</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="V17" t="n">
-        <v>1666.85108069669</v>
+        <v>1631.03298547254</v>
       </c>
       <c r="W17" t="n">
-        <v>1666.85108069669</v>
+        <v>1631.03298547254</v>
       </c>
       <c r="X17" t="n">
-        <v>1293.38532243561</v>
+        <v>1257.56722721146</v>
       </c>
       <c r="Y17" t="n">
-        <v>903.2459904597981</v>
+        <v>867.427895235648</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>665.9852921462568</v>
+        <v>449.7644920098836</v>
       </c>
       <c r="C18" t="n">
-        <v>665.9852921462568</v>
+        <v>275.3114627287565</v>
       </c>
       <c r="D18" t="n">
-        <v>665.9852921462568</v>
+        <v>275.3114627287565</v>
       </c>
       <c r="E18" t="n">
-        <v>506.7478371408014</v>
+        <v>116.074007723301</v>
       </c>
       <c r="F18" t="n">
-        <v>360.2132791676863</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G18" t="n">
-        <v>221.9250995404893</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H18" t="n">
-        <v>112.8309903954056</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I18" t="n">
         <v>37.77157815156051</v>
@@ -5597,49 +5597,49 @@
         <v>37.77157815156051</v>
       </c>
       <c r="K18" t="n">
-        <v>163.1291382093979</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L18" t="n">
-        <v>393.0922440777471</v>
+        <v>557.3452682424038</v>
       </c>
       <c r="M18" t="n">
-        <v>823.3520000893679</v>
+        <v>905.0440059028728</v>
       </c>
       <c r="N18" t="n">
-        <v>1280.706464952212</v>
+        <v>1249.564661540491</v>
       </c>
       <c r="O18" t="n">
-        <v>1632.680770603331</v>
+        <v>1498.318075624453</v>
       </c>
       <c r="P18" t="n">
-        <v>1888.578907578026</v>
+        <v>1763.805418834996</v>
       </c>
       <c r="Q18" t="n">
         <v>1888.578907578026</v>
       </c>
       <c r="R18" t="n">
-        <v>1814.892245700621</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S18" t="n">
-        <v>1649.696852561132</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T18" t="n">
-        <v>1591.42075414178</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="U18" t="n">
-        <v>1363.226257311734</v>
+        <v>1522.981092960383</v>
       </c>
       <c r="V18" t="n">
-        <v>1128.074149079991</v>
+        <v>1287.82898472864</v>
       </c>
       <c r="W18" t="n">
-        <v>873.8367923517897</v>
+        <v>1033.591628000438</v>
       </c>
       <c r="X18" t="n">
-        <v>665.9852921462568</v>
+        <v>825.7401277949054</v>
       </c>
       <c r="Y18" t="n">
-        <v>665.9852921462568</v>
+        <v>617.9798290299516</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.77157815156051</v>
+        <v>197.2809281555487</v>
       </c>
       <c r="C19" t="n">
-        <v>37.77157815156051</v>
+        <v>197.2809281555487</v>
       </c>
       <c r="D19" t="n">
-        <v>37.77157815156051</v>
+        <v>197.2809281555487</v>
       </c>
       <c r="E19" t="n">
-        <v>37.77157815156051</v>
+        <v>197.2809281555487</v>
       </c>
       <c r="F19" t="n">
-        <v>37.77157815156051</v>
+        <v>197.2809281555487</v>
       </c>
       <c r="G19" t="n">
-        <v>37.77157815156051</v>
+        <v>197.2809281555487</v>
       </c>
       <c r="H19" t="n">
         <v>37.77157815156051</v>
@@ -5703,22 +5703,22 @@
         <v>451.9654163614355</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3029525927397</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="U19" t="n">
-        <v>223.3029525927397</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="V19" t="n">
-        <v>223.3029525927397</v>
+        <v>197.2809281555487</v>
       </c>
       <c r="W19" t="n">
-        <v>223.3029525927397</v>
+        <v>197.2809281555487</v>
       </c>
       <c r="X19" t="n">
-        <v>223.3029525927397</v>
+        <v>197.2809281555487</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.77157815156051</v>
+        <v>197.2809281555487</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>790.7403073567823</v>
+        <v>1046.256005244992</v>
       </c>
       <c r="C20" t="n">
-        <v>421.7777904163706</v>
+        <v>842.2302430442846</v>
       </c>
       <c r="D20" t="n">
-        <v>63.51209180962007</v>
+        <v>842.2302430442846</v>
       </c>
       <c r="E20" t="n">
-        <v>63.51209180962007</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="F20" t="n">
-        <v>37.77157815156051</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="G20" t="n">
         <v>37.77157815156051</v>
@@ -5758,10 +5758,10 @@
         <v>300.9175062625695</v>
       </c>
       <c r="L20" t="n">
-        <v>608.9498412559817</v>
+        <v>608.9498412559815</v>
       </c>
       <c r="M20" t="n">
-        <v>968.301710885993</v>
+        <v>968.3017108859929</v>
       </c>
       <c r="N20" t="n">
         <v>1318.836271911618</v>
@@ -5776,28 +5776,28 @@
         <v>1888.578907578026</v>
       </c>
       <c r="R20" t="n">
-        <v>1888.578907578026</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="S20" t="n">
-        <v>1696.299676851803</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="T20" t="n">
-        <v>1474.571849970467</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="U20" t="n">
-        <v>1474.571849970467</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="V20" t="n">
-        <v>1143.508962626896</v>
+        <v>1789.163992490918</v>
       </c>
       <c r="W20" t="n">
-        <v>790.7403073567823</v>
+        <v>1436.395337220803</v>
       </c>
       <c r="X20" t="n">
-        <v>790.7403073567823</v>
+        <v>1436.395337220803</v>
       </c>
       <c r="Y20" t="n">
-        <v>790.7403073567823</v>
+        <v>1046.256005244992</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>221.5699951798374</v>
+        <v>570.3360270507028</v>
       </c>
       <c r="C21" t="n">
-        <v>221.5699951798374</v>
+        <v>395.8829977695758</v>
       </c>
       <c r="D21" t="n">
-        <v>197.009033157016</v>
+        <v>246.9485881083245</v>
       </c>
       <c r="E21" t="n">
-        <v>37.77157815156051</v>
+        <v>87.71113310286904</v>
       </c>
       <c r="F21" t="n">
         <v>37.77157815156051</v>
@@ -5831,22 +5831,22 @@
         <v>37.77157815156051</v>
       </c>
       <c r="J21" t="n">
-        <v>78.02054839819859</v>
+        <v>78.0205483981986</v>
       </c>
       <c r="K21" t="n">
         <v>273.433292426173</v>
       </c>
       <c r="L21" t="n">
-        <v>503.3963982945221</v>
+        <v>597.5942384890418</v>
       </c>
       <c r="M21" t="n">
-        <v>933.656154306143</v>
+        <v>940.0459101626083</v>
       </c>
       <c r="N21" t="n">
-        <v>1201.722700203034</v>
+        <v>1284.566565800226</v>
       </c>
       <c r="O21" t="n">
-        <v>1553.697005854153</v>
+        <v>1636.540871451346</v>
       </c>
       <c r="P21" t="n">
         <v>1819.184349064696</v>
@@ -5855,28 +5855,28 @@
         <v>1888.578907578026</v>
       </c>
       <c r="R21" t="n">
-        <v>1888.578907578026</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="S21" t="n">
-        <v>1723.383514438536</v>
+        <v>1649.696852561132</v>
       </c>
       <c r="T21" t="n">
-        <v>1522.981092960383</v>
+        <v>1449.294431082978</v>
       </c>
       <c r="U21" t="n">
-        <v>1294.786596130336</v>
+        <v>1221.099934252932</v>
       </c>
       <c r="V21" t="n">
-        <v>1059.634487898594</v>
+        <v>985.9478260211895</v>
       </c>
       <c r="W21" t="n">
-        <v>805.3971311703922</v>
+        <v>985.9478260211895</v>
       </c>
       <c r="X21" t="n">
-        <v>597.5456309648594</v>
+        <v>778.0963258156567</v>
       </c>
       <c r="Y21" t="n">
-        <v>389.7853321999054</v>
+        <v>570.3360270507028</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1888.578907578026</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="C22" t="n">
-        <v>1888.578907578026</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="D22" t="n">
-        <v>1888.578907578026</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="E22" t="n">
-        <v>1888.578907578026</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="F22" t="n">
-        <v>1804.26824807767</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="G22" t="n">
-        <v>1634.95148950089</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="H22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="I22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="J22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="K22" t="n">
-        <v>1494.595282484257</v>
+        <v>57.98179126766713</v>
       </c>
       <c r="L22" t="n">
-        <v>1575.983831742994</v>
+        <v>139.3703405264044</v>
       </c>
       <c r="M22" t="n">
-        <v>1672.185768514183</v>
+        <v>235.5722772975928</v>
       </c>
       <c r="N22" t="n">
-        <v>1771.534854672707</v>
+        <v>334.9213634561166</v>
       </c>
       <c r="O22" t="n">
-        <v>1847.283520341171</v>
+        <v>410.6700291245812</v>
       </c>
       <c r="P22" t="n">
-        <v>1888.578907578026</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="Q22" t="n">
-        <v>1888.578907578026</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="R22" t="n">
-        <v>1888.578907578026</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="S22" t="n">
-        <v>1888.578907578026</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="T22" t="n">
-        <v>1888.578907578026</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="U22" t="n">
-        <v>1888.578907578026</v>
+        <v>451.9654163614355</v>
       </c>
       <c r="V22" t="n">
-        <v>1888.578907578026</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="W22" t="n">
-        <v>1888.578907578026</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="X22" t="n">
-        <v>1888.578907578026</v>
+        <v>37.77157815156051</v>
       </c>
       <c r="Y22" t="n">
-        <v>1888.578907578026</v>
+        <v>37.77157815156051</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1095.753074569373</v>
+        <v>1525.746656041709</v>
       </c>
       <c r="C23" t="n">
-        <v>726.7905576289616</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D23" t="n">
-        <v>368.524859022211</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
-        <v>368.524859022211</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>368.524859022211</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G23" t="n">
-        <v>368.524859022211</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X23" t="n">
-        <v>1485.892406545185</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y23" t="n">
-        <v>1095.753074569373</v>
+        <v>1525.746656041709</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6065,52 +6065,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2697.149091018222</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C25" t="n">
-        <v>2697.149091018222</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D25" t="n">
-        <v>2547.032451605887</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>2399.119358023494</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>2252.229410525583</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>2083.229610263916</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y25" t="n">
-        <v>2697.149091018222</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1194.175505447095</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C26" t="n">
-        <v>1194.175505447095</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D26" t="n">
-        <v>1194.175505447095</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
-        <v>1194.175505447095</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>783.1896006574877</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>365.2257925556746</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748109</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487029</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511217</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6302,16 +6302,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6326,7 +6326,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2191.89927156006</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2535635691812</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2535635691812</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2535635691812</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2535635691812</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V28" t="n">
-        <v>2442.464602812336</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W28" t="n">
-        <v>2191.89927156006</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X28" t="n">
-        <v>2191.89927156006</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y28" t="n">
-        <v>2191.89927156006</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1721.819089287443</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C29" t="n">
-        <v>1721.819089287443</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D29" t="n">
-        <v>1363.553390680693</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6469,13 +6469,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2147.451536646714</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W29" t="n">
-        <v>2147.451536646714</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X29" t="n">
-        <v>1773.985778385635</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y29" t="n">
-        <v>1721.819089287443</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="30">
@@ -6524,16 +6524,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694738</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>371.9203575519559</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1610.120910258947</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="C32" t="n">
-        <v>1241.158393318536</v>
+        <v>1369.896143111252</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>1011.630444504501</v>
       </c>
       <c r="E32" t="n">
         <v>882.8926947117852</v>
@@ -6703,49 +6703,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X32" t="n">
-        <v>2386.860082298881</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y32" t="n">
-        <v>1996.720750323069</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6779,43 +6779,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2066.718496146435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2048.575150942547</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C35" t="n">
-        <v>1954.141365880777</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D35" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6964,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T35" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U35" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V35" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W35" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X35" t="n">
-        <v>2048.575150942547</v>
+        <v>2147.505845071312</v>
       </c>
       <c r="Y35" t="n">
-        <v>2048.575150942547</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7022,19 +7022,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121377</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2469.159540120205</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C37" t="n">
-        <v>2469.159540120205</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="D37" t="n">
-        <v>2469.159540120205</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="E37" t="n">
-        <v>2469.159540120205</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="F37" t="n">
-        <v>2469.159540120205</v>
+        <v>251.4439133124681</v>
       </c>
       <c r="G37" t="n">
-        <v>2300.159739858537</v>
+        <v>82.44411305080055</v>
       </c>
       <c r="H37" t="n">
-        <v>2142.411367291068</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X37" t="n">
-        <v>2469.159540120205</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y37" t="n">
-        <v>2469.159540120205</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C38" t="n">
-        <v>1491.915471247702</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="D38" t="n">
-        <v>1491.915471247702</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7186,7 +7186,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7216,10 +7216,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
         <v>814.0449459359563</v>
@@ -7253,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7280,16 +7280,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>2469.840903686824</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>2180.667293341392</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632153</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>882.8926947117852</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C41" t="n">
-        <v>882.8926947117852</v>
+        <v>1024.022260178525</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117852</v>
+        <v>1024.022260178525</v>
       </c>
       <c r="E41" t="n">
         <v>882.8926947117852</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2033.097625012799</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2033.097625012799</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W41" t="n">
-        <v>2033.097625012799</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X41" t="n">
-        <v>1659.631866751719</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y41" t="n">
-        <v>1269.492534775907</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="42">
@@ -7490,37 +7490,37 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.8207968750362</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C43" t="n">
-        <v>500.8207968750362</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D43" t="n">
-        <v>500.8207968750362</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E43" t="n">
         <v>369.8327295799424</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>500.8207968750362</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>500.8207968750362</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X43" t="n">
-        <v>500.8207968750362</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.8207968750362</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1744.23243129246</v>
+        <v>2065.583954036491</v>
       </c>
       <c r="C44" t="n">
-        <v>1375.269914352048</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D44" t="n">
-        <v>1017.004215745297</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E44" t="n">
-        <v>1017.004215745297</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V44" t="n">
-        <v>2520.971603332393</v>
+        <v>2452.183794100613</v>
       </c>
       <c r="W44" t="n">
-        <v>2520.971603332393</v>
+        <v>2452.183794100613</v>
       </c>
       <c r="X44" t="n">
-        <v>2520.971603332393</v>
+        <v>2452.183794100613</v>
       </c>
       <c r="Y44" t="n">
-        <v>2130.832271356581</v>
+        <v>2452.183794100613</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.7118141694739</v>
+        <v>538.7689125078492</v>
       </c>
       <c r="C46" t="n">
-        <v>438.7118141694739</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D46" t="n">
-        <v>438.7118141694739</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E46" t="n">
-        <v>290.7987205870808</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F46" t="n">
-        <v>143.9087730891705</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>143.9087730891705</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064346</v>
+        <v>538.7689125078492</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7118141694739</v>
+        <v>538.7689125078492</v>
       </c>
       <c r="X46" t="n">
-        <v>438.7118141694739</v>
+        <v>538.7689125078492</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.7118141694739</v>
+        <v>538.7689125078492</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,19 +8300,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>85.4355098387542</v>
       </c>
       <c r="K12" t="n">
-        <v>67.07862688331151</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>85.43550983875421</v>
       </c>
       <c r="K15" t="n">
-        <v>180.8846832189555</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>93.18160495991825</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>85.4355098387542</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.04346072268811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>402.1160008680718</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>76.77699320114897</v>
       </c>
       <c r="C3" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,7 +22682,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22837,13 +22837,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>116.7666494799233</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>351.4177255634863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>34.30853052353727</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>49.65393615106365</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>67.35067747493946</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I11" t="n">
         <v>178.9002608012674</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>98.42076593623696</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>190.3564384189606</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>204.8905411630114</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>34.12245913122493</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.41952832570246</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S12" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3983972633722</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9125518617455</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.93455184450652</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J13" t="n">
         <v>67.38482253818418</v>
@@ -23475,7 +23475,7 @@
         <v>286.2989899909938</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>158.3248075052761</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>269.8470620462659</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>351.8236844399008</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>331.0869178506238</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>251.2801305603485</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I15" t="n">
-        <v>74.30881812140659</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.94979525863036</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>163.5434392080944</v>
@@ -23630,10 +23630,10 @@
         <v>198.3983972633722</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>97.96150209509091</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>59.69101780244802</v>
       </c>
     </row>
     <row r="16">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>22.90506115538396</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>60.93455184450657</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J16" t="n">
         <v>67.3848225381842</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>305.6707734208679</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>98.42076593623698</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S17" t="n">
         <v>190.3564384189606</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U17" t="n">
         <v>251.2801305603485</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>72.78179558570383</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>67.54980711736079</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>140.7050598282138</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23907,13 +23907,13 @@
         <v>167.623590991012</v>
       </c>
       <c r="H19" t="n">
-        <v>158.9607559314126</v>
+        <v>1.04649942746434</v>
       </c>
       <c r="I19" t="n">
         <v>144.4021047498582</v>
       </c>
       <c r="J19" t="n">
-        <v>67.3848225381842</v>
+        <v>67.38482253818418</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.39827731939937</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R19" t="n">
         <v>160.7742744190617</v>
@@ -23943,13 +23943,13 @@
         <v>217.6140207606494</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.3758391310088</v>
       </c>
       <c r="U19" t="n">
         <v>286.2989899909938</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.9085926553274</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>163.2873871923076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>381.3929372202325</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.4837081715351</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>331.0869178506238</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>98.42076593623698</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U20" t="n">
         <v>251.2801305603485</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>123.1297131620456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>95.62905299158844</v>
       </c>
       <c r="G21" t="n">
         <v>136.905297830925</v>
@@ -24068,7 +24068,7 @@
         <v>108.0031680536329</v>
       </c>
       <c r="I21" t="n">
-        <v>74.30881812140659</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.94979525863036</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>61.95349511757949</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I22" t="n">
         <v>144.4021047498582</v>
       </c>
       <c r="J22" t="n">
-        <v>67.3848225381842</v>
+        <v>67.38482253818418</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.39827731939937</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R22" t="n">
         <v>160.7742744190617</v>
@@ -24186,10 +24186,10 @@
         <v>286.2989899909938</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>128.6087418326427</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>51.6767117265324</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>12.48671433452898</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24259,19 +24259,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>96.50703242635001</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>134.416753351873</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>167.6841063812614</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,10 +24502,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>79.50275132026022</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>32.36232632772237</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24660,16 +24660,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>38.4633203968379</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>329.5855517226503</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>334.5929164488441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>56.93405031343801</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>152.4611113007521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>254.479997777473</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,19 +24973,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>62.54498204632063</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.9289676594886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>271.7834445598556</v>
+        <v>264.2080233068716</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,19 +25323,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>127.9547689236634</v>
       </c>
       <c r="I37" t="n">
-        <v>16.71182592001271</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>87.87253500827512</v>
       </c>
       <c r="E38" t="n">
-        <v>254.8519103109223</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>96.0104806616813</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>95.66408018171555</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>242.2121002601897</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>39.15565190436084</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>16.75577602442632</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>183.9473495801921</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>191.15236694118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -25924,7 +25924,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>139.7150170965142</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26025,28 +26025,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>67.10475548567717</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26082,10 +26082,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>211.3363643223867</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>423709.714954898</v>
+        <v>423709.7149548978</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>423709.7149548978</v>
+        <v>423709.714954898</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423709.714954898</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>592374.1954142991</v>
+        <v>592374.195414299</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>592374.1954142991</v>
+        <v>592374.195414299</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="C2" t="n">
         <v>157852.6389047657</v>
@@ -26325,37 +26325,37 @@
         <v>220688.4257425818</v>
       </c>
       <c r="F2" t="n">
-        <v>220688.4257425817</v>
+        <v>220688.4257425818</v>
       </c>
       <c r="G2" t="n">
-        <v>220688.4257425817</v>
+        <v>220688.4257425818</v>
       </c>
       <c r="H2" t="n">
         <v>220688.4257425818</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.97951497</v>
+        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>184739.8879912182</v>
+        <v>184739.8879912181</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910626</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>57598.62967555043</v>
+        <v>57598.62967555042</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>357.1805247076753</v>
+        <v>357.1805247076754</v>
       </c>
       <c r="F4" t="n">
-        <v>357.1805247076753</v>
+        <v>357.1805247076754</v>
       </c>
       <c r="G4" t="n">
         <v>357.1805247076753</v>
       </c>
       <c r="H4" t="n">
-        <v>357.1805247076753</v>
+        <v>357.1805247076754</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
         <v>513.1084990597035</v>
@@ -26459,7 +26459,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26493,7 +26493,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28622.4061117524</v>
+        <v>16404.39549171191</v>
       </c>
       <c r="C6" t="n">
-        <v>109391.8376433001</v>
+        <v>97173.82702325963</v>
       </c>
       <c r="D6" t="n">
-        <v>109391.8376433002</v>
+        <v>97173.82702325968</v>
       </c>
       <c r="E6" t="n">
-        <v>-45507.15411690773</v>
+        <v>-54418.01806127367</v>
       </c>
       <c r="F6" t="n">
-        <v>187183.4544496812</v>
+        <v>178272.5905053154</v>
       </c>
       <c r="G6" t="n">
-        <v>187183.4544496812</v>
+        <v>178272.5905053154</v>
       </c>
       <c r="H6" t="n">
-        <v>187183.4544496813</v>
+        <v>178272.5905053154</v>
       </c>
       <c r="I6" t="n">
-        <v>40210.50496128251</v>
+        <v>34142.09121546331</v>
       </c>
       <c r="J6" t="n">
-        <v>161890.4503533943</v>
+        <v>155822.0366075752</v>
       </c>
       <c r="K6" t="n">
-        <v>224950.3929525007</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="L6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066814</v>
       </c>
       <c r="M6" t="n">
-        <v>167351.76327695</v>
+        <v>161283.3495311308</v>
       </c>
       <c r="N6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="O6" t="n">
-        <v>224950.3929525007</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="P6" t="n">
-        <v>224950.3929525008</v>
+        <v>218881.9792066815</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>203.7335492204968</v>
       </c>
       <c r="G3" t="n">
-        <v>203.7335492204968</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="H3" t="n">
-        <v>203.7335492204968</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26810,10 +26810,10 @@
         <v>472.1447268945064</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,7 +26822,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>174.0101149965899</v>
+        <v>174.0101149965898</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>202.1425458600492</v>
+        <v>202.1425458600491</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776592</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168474</v>
+        <v>231.1304380168473</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>95.14933352981791</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0347843251708</v>
+        <v>49.41011647135321</v>
       </c>
       <c r="N12" t="n">
-        <v>113.9735446719457</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>85.39639893736131</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P12" t="n">
         <v>83.68067232039616</v>
@@ -32089,13 +32089,13 @@
         <v>111.0347843251708</v>
       </c>
       <c r="N15" t="n">
-        <v>113.9735446719457</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>83.68067232039616</v>
       </c>
       <c r="Q15" t="n">
         <v>55.9383133633334</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8190293435999866</v>
+        <v>0.8190293435999867</v>
       </c>
       <c r="H17" t="n">
-        <v>8.387884265143365</v>
+        <v>8.387884265143366</v>
       </c>
       <c r="I17" t="n">
-        <v>31.57562876913851</v>
+        <v>31.57562876913852</v>
       </c>
       <c r="J17" t="n">
         <v>69.51409175136943</v>
@@ -32256,19 +32256,19 @@
         <v>117.7774433963577</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.44595502868312</v>
+        <v>88.44595502868313</v>
       </c>
       <c r="R17" t="n">
         <v>51.44835200491271</v>
       </c>
       <c r="S17" t="n">
-        <v>18.66363116728471</v>
+        <v>18.66363116728472</v>
       </c>
       <c r="T17" t="n">
-        <v>3.585300951608943</v>
+        <v>3.585300951608944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06552234748799891</v>
+        <v>0.06552234748799893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>4.232276182863529</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08781473000849</v>
+        <v>15.0878147300085</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>41.40211682791249</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>70.76281209104748</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>95.14933352981791</v>
       </c>
       <c r="M18" t="n">
-        <v>111.0347843251708</v>
+        <v>27.63981629370426</v>
       </c>
       <c r="N18" t="n">
-        <v>113.9735446719457</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>104.2635268355122</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>73.99460541549826</v>
+        <v>83.68067232039616</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.9383133633334</v>
+        <v>55.93831336333341</v>
       </c>
       <c r="R18" t="n">
         <v>27.20803889401278</v>
       </c>
       <c r="S18" t="n">
-        <v>8.139731895743429</v>
+        <v>8.139731895743431</v>
       </c>
       <c r="T18" t="n">
         <v>1.766331431449401</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0288302192293156</v>
+        <v>0.02883021922931561</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32393,22 +32393,22 @@
         <v>11.04837017740006</v>
       </c>
       <c r="J19" t="n">
-        <v>25.97435757848858</v>
+        <v>25.97435757848859</v>
       </c>
       <c r="K19" t="n">
         <v>42.68384850881883</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62063055659025</v>
+        <v>54.62063055659026</v>
       </c>
       <c r="M19" t="n">
-        <v>57.58979654441026</v>
+        <v>57.58979654441027</v>
       </c>
       <c r="N19" t="n">
-        <v>56.22043990210861</v>
+        <v>56.22043990210862</v>
       </c>
       <c r="O19" t="n">
-        <v>51.92867579148009</v>
+        <v>51.9286757914801</v>
       </c>
       <c r="P19" t="n">
         <v>44.43395309556539</v>
@@ -32420,7 +32420,7 @@
         <v>16.51911695810782</v>
       </c>
       <c r="S19" t="n">
-        <v>6.402577276322823</v>
+        <v>6.402577276322824</v>
       </c>
       <c r="T19" t="n">
         <v>1.56975029727268</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8190293435999866</v>
+        <v>0.8190293435999867</v>
       </c>
       <c r="H20" t="n">
-        <v>8.387884265143365</v>
+        <v>8.387884265143366</v>
       </c>
       <c r="I20" t="n">
-        <v>31.57562876913851</v>
+        <v>31.57562876913852</v>
       </c>
       <c r="J20" t="n">
         <v>69.51409175136943</v>
@@ -32493,19 +32493,19 @@
         <v>117.7774433963577</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.44595502868312</v>
+        <v>88.44595502868313</v>
       </c>
       <c r="R20" t="n">
         <v>51.44835200491271</v>
       </c>
       <c r="S20" t="n">
-        <v>18.66363116728471</v>
+        <v>18.66363116728472</v>
       </c>
       <c r="T20" t="n">
-        <v>3.585300951608943</v>
+        <v>3.585300951608944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06552234748799891</v>
+        <v>0.06552234748799893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,19 +32548,19 @@
         <v>4.232276182863529</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08781473000849</v>
+        <v>15.0878147300085</v>
       </c>
       <c r="J21" t="n">
-        <v>41.40211682791248</v>
+        <v>41.40211682791249</v>
       </c>
       <c r="K21" t="n">
         <v>70.76281209104748</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>95.14933352981791</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0347843251708</v>
+        <v>22.33974964026737</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>104.2635268355122</v>
       </c>
       <c r="P21" t="n">
-        <v>83.68067232039616</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32578,13 +32578,13 @@
         <v>27.20803889401278</v>
       </c>
       <c r="S21" t="n">
-        <v>8.139731895743429</v>
+        <v>8.139731895743431</v>
       </c>
       <c r="T21" t="n">
         <v>1.766331431449401</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0288302192293156</v>
+        <v>0.02883021922931561</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32630,22 +32630,22 @@
         <v>11.04837017740006</v>
       </c>
       <c r="J22" t="n">
-        <v>25.97435757848858</v>
+        <v>25.97435757848859</v>
       </c>
       <c r="K22" t="n">
         <v>42.68384850881883</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62063055659025</v>
+        <v>54.62063055659026</v>
       </c>
       <c r="M22" t="n">
-        <v>57.58979654441026</v>
+        <v>57.58979654441027</v>
       </c>
       <c r="N22" t="n">
-        <v>56.22043990210861</v>
+        <v>56.22043990210862</v>
       </c>
       <c r="O22" t="n">
-        <v>51.92867579148009</v>
+        <v>51.9286757914801</v>
       </c>
       <c r="P22" t="n">
         <v>44.43395309556539</v>
@@ -32657,7 +32657,7 @@
         <v>16.51911695810782</v>
       </c>
       <c r="S22" t="n">
-        <v>6.402577276322823</v>
+        <v>6.402577276322824</v>
       </c>
       <c r="T22" t="n">
         <v>1.56975029727268</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653214</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33274,28 +33274,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>195.5988322391985</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>160.6967431133291</v>
       </c>
       <c r="M36" t="n">
         <v>205.8702969983122</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M39" t="n">
         <v>205.8702969983122</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>56.9811619494227</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,25 +34541,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.65552550165463</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L12" t="n">
         <v>327.4352990534029</v>
       </c>
       <c r="M12" t="n">
-        <v>434.6058141531524</v>
+        <v>372.9811462993348</v>
       </c>
       <c r="N12" t="n">
-        <v>461.9742069321659</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>336.6624737696464</v>
+        <v>355.5296016677973</v>
       </c>
       <c r="P12" t="n">
         <v>268.1690335460031</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>40.65552550165462</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>43.04324424459648</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>327.4352990534029</v>
@@ -35737,16 +35737,16 @@
         <v>434.6058141531523</v>
       </c>
       <c r="N15" t="n">
-        <v>461.9742069321659</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>268.1690335460031</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.033827013161</v>
+        <v>9.138144237230142</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>208.3431558125708</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.45525581413831</v>
+        <v>78.45525581413833</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>327.4352990534029</v>
       </c>
       <c r="M18" t="n">
-        <v>434.6058141531523</v>
+        <v>351.2108461216858</v>
       </c>
       <c r="N18" t="n">
-        <v>461.9742069321659</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>355.5296016677972</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>258.4829666411052</v>
+        <v>268.1690335460031</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>126.033827013161</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.41435668293597</v>
+        <v>20.41435668293598</v>
       </c>
       <c r="L19" t="n">
-        <v>82.21065581690638</v>
+        <v>82.2106558169064</v>
       </c>
       <c r="M19" t="n">
         <v>97.17367350625085</v>
@@ -36059,7 +36059,7 @@
         <v>76.51380370551976</v>
       </c>
       <c r="P19" t="n">
-        <v>41.71251236045887</v>
+        <v>41.71251236045888</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>208.3431558125708</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.45525581413831</v>
+        <v>78.45525581413833</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.65552550165462</v>
+        <v>40.65552550165463</v>
       </c>
       <c r="K21" t="n">
         <v>197.3866101292671</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>327.4352990534029</v>
       </c>
       <c r="M21" t="n">
-        <v>434.6058141531523</v>
+        <v>345.910779468249</v>
       </c>
       <c r="N21" t="n">
-        <v>270.7742887847384</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>355.5296016677972</v>
+        <v>355.5296016677973</v>
       </c>
       <c r="P21" t="n">
-        <v>268.1690335460031</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.41435668293597</v>
+        <v>20.41435668293598</v>
       </c>
       <c r="L22" t="n">
-        <v>82.21065581690638</v>
+        <v>82.2106558169064</v>
       </c>
       <c r="M22" t="n">
         <v>97.17367350625085</v>
@@ -36296,7 +36296,7 @@
         <v>76.51380370551976</v>
       </c>
       <c r="P22" t="n">
-        <v>41.71251236045887</v>
+        <v>41.71251236045888</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>543.5994944994187</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>392.9827086369141</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
